--- a/src/test/resources/Login.xlsx
+++ b/src/test/resources/Login.xlsx
@@ -4,39 +4,57 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15900" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>Emp_Id</t>
-  </si>
-  <si>
-    <t>Alok</t>
-  </si>
-  <si>
-    <t>Satish</t>
-  </si>
-  <si>
-    <t>Patil</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>EmpId</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>shyam</t>
+  </si>
+  <si>
+    <t>sita</t>
+  </si>
+  <si>
+    <t>alok</t>
+  </si>
+  <si>
+    <t>alak</t>
+  </si>
+  <si>
+    <t>naranjan</t>
+  </si>
+  <si>
+    <t>rane</t>
+  </si>
+  <si>
+    <t>sahane</t>
+  </si>
+  <si>
+    <t>pahne</t>
   </si>
 </sst>
 </file>
@@ -375,19 +393,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -395,10 +411,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -409,18 +425,45 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>201</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>3453</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/Login.xlsx
+++ b/src/test/resources/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15900" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15900" windowHeight="3630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>firstName</t>
   </si>
@@ -55,16 +56,51 @@
   </si>
   <si>
     <t>pahne</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>Mr.Ram</t>
+  </si>
+  <si>
+    <t>Mr.Shyam</t>
+  </si>
+  <si>
+    <t>Mrs.Sita</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ram@123</t>
+  </si>
+  <si>
+    <t>shyam@321</t>
+  </si>
+  <si>
+    <t>sita@654</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +123,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,9 +443,12 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +461,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -433,8 +484,17 @@
       <c r="D2">
         <v>154</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -447,8 +507,17 @@
       <c r="D3">
         <v>3540</v>
       </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -461,8 +530,25 @@
       <c r="D4">
         <v>3453</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
